--- a/ejemplos/modelos_masa/Qpetraea_Cordillera_Cantabrica_IFN_todo.xlsx
+++ b/ejemplos/modelos_masa/Qpetraea_Cordillera_Cantabrica_IFN_todo.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,42 +452,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
         <v>2002</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>127.3239544735163</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.265625</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-5.283017956956816</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>43.03214678706439</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>45.27869937831567</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>45.40679020710383</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>43.55871861772173</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>41.88051734167375</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>40.51063799268073</v>
       </c>
     </row>
@@ -498,42 +506,45 @@
         </is>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
         <v>2002</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.092958178940651</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.7396</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-4.936718505751361</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.9484892533701</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>41.82518767526195</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>38.68879669544886</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>37.09579001508338</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>35.81089149981457</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>34.60948260444416</v>
       </c>
     </row>
@@ -549,42 +560,45 @@
         </is>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
         <v>2019</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>190.9859317102744</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.91135</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.050140805492893</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-6.304070545468261</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>42.95821483143182</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>59.14845839506971</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>55.92281889541159</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>53.67380537880302</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>51.85125320985434</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>50.31948878375425</v>
       </c>
     </row>
@@ -600,42 +614,45 @@
         </is>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
         <v>2019</v>
       </c>
-      <c r="E5">
-        <v>42</v>
-      </c>
       <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
         <v>286.4788975654116</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.3669375</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6.950422628704752</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-5.284286374778691</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>43.03027559036178</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>45.27869937831567</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>48.75326952700566</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>46.54421181127314</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>44.97487416193758</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>43.4380164901425</v>
       </c>
     </row>
@@ -651,42 +668,45 @@
         </is>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
         <v>2019</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.092958178940651</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.990025</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10.1000003814697</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-4.937983417281838</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>42.94661290610898</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>41.82518767526195</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>38.68879669544886</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>37.09579001508338</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>35.81089149981457</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>34.60948260444416</v>
       </c>
     </row>
@@ -702,42 +722,45 @@
         </is>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
         <v>2019</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1966.447741313196</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>45.64065416666666</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>17.93245695546242</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-4.496826814402525</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>42.93553042617032</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>38.83618855375943</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>37.10833514774019</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>35.38615840244063</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>34.16420546416876</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>32.98136655816748</v>
       </c>
     </row>
@@ -753,42 +776,45 @@
         </is>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
         <v>2019</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>127.3239544735163</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.585225</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.09999990463257</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-4.424210628941239</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>43.00862942072941</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>51.30744972467885</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>46.51243982038589</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>44.55089802527625</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>42.87329844537454</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>41.42886620524751</v>
       </c>
     </row>
@@ -804,42 +830,45 @@
         </is>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="E9">
         <v>2019</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>99</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1511.759752782217</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>44.86434791666667</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>19.69417867377869</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-4.53362233342504</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>42.98907111157351</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>43.12861721941376</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>46.05320538816</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>44.0743110706003</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>42.4769874900724</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>40.96474946495587</v>
       </c>
     </row>
@@ -855,42 +884,45 @@
         </is>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10">
         <v>2019</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>40</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1305.070533353542</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>16.44881875</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13.40478885305849</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-4.51676225543438</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>42.76387039364447</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>32.80764213976241</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>32.8588661486276</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>31.31050760694135</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>30.19071467503051</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>29.06605918415748</v>
       </c>
     </row>
@@ -906,42 +938,45 @@
         </is>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D11">
+        <v>42</v>
+      </c>
+      <c r="E11">
         <v>2019</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>80</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>589.6513802729064</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.96937669444444</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>17.61737840675902</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-4.534098854486801</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>42.97074934098033</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>43.12861721941376</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>42.61777866754782</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>40.70175410374068</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>39.25486158720812</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>37.82082324614407</v>
       </c>
     </row>
@@ -957,42 +992,45 @@
         </is>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="E12">
         <v>2019</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>90</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1184.678660845806</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>38.42233716666667</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18.07849130138553</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-4.520751739061197</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>42.94362538741333</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>42.41319187702523</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>46.60961153825579</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>44.56848416293398</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>42.92026089687579</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>41.37588036850189</v>
       </c>
     </row>
@@ -1008,42 +1046,45 @@
         </is>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
         <v>2019</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>99</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30.5577490736439</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>12.985887</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11.13333336512248</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-4.522663650454732</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>43.00673138234838</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>46.53081188574565</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>45.87084156397061</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>43.94798548935901</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>42.33820438743508</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>40.85631963557476</v>
       </c>
     </row>
@@ -1059,42 +1100,45 @@
         </is>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
         <v>2019</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>70</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>61.68138238939233</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6.159127777777778</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>10.53944970052176</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-4.54319676701112</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>42.87158435440131</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>42.12557692548008</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>36.27216504317996</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>34.52784528952334</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>33.30960861766452</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>32.08106009830554</v>
       </c>
     </row>
